--- a/outputfles.xlsx
+++ b/outputfles.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>k0n0634@gmail.com</t>
+          <t>k8n3634@gmail.com</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -620,7 +620,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>l913774@gmail.cmm</t>
+          <t>l869774@gmail.cmm</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -683,7 +683,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>gr37g634@gmail.com</t>
+          <t>gr07g634@gmail.com</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -746,7 +746,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>k1ng489@gmail.cfm</t>
+          <t>k2ng489@gmail.cfm</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -809,7 +809,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>35hn854@gmail.cmm</t>
+          <t>55hn854@gmail.cmm</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -872,7 +872,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>l0v5714@gmail.cfm</t>
+          <t>l0v2714@gmail.cfm</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -935,7 +935,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>j6m0891@gmail.com</t>
+          <t>j2m4891@gmail.com</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -998,7 +998,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>84ss196@gmail.cfm</t>
+          <t>92ss196@gmail.cfm</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>l0r6478@gmail.cmm</t>
+          <t>l7r5478@gmail.cmm</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>sm0t110@gmail.com</t>
+          <t>sm9t110@gmail.com</t>
         </is>
       </c>
       <c r="L11" t="n">
